--- a/MOES_Quantitative_Data_Final_25Aug18.xlsx
+++ b/MOES_Quantitative_Data_Final_25Aug18.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="252">
   <si>
     <t>Participant</t>
   </si>
@@ -928,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1026,7 +1026,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -64461,8 +64460,8 @@
   </sheetPr>
   <dimension ref="A1:AV912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="W7" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -64655,7 +64654,7 @@
     </row>
     <row r="2" spans="1:48" ht="99.75">
       <c r="A2" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>0</v>
@@ -64794,8 +64793,8 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="14.25">
-      <c r="A3" s="30" t="s">
-        <v>208</v>
+      <c r="A3" s="30">
+        <v>0</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>43</v>
@@ -65029,7 +65028,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AC4" s="49"/>
+      <c r="AC4" s="47"/>
       <c r="AD4" s="35">
         <v>4</v>
       </c>
@@ -65324,7 +65323,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AC6" s="49"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="35">
         <v>4</v>
       </c>
@@ -65619,7 +65618,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AC8" s="49"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="35">
         <v>3</v>
       </c>
@@ -65914,7 +65913,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="AC10" s="49"/>
+      <c r="AC10" s="47"/>
       <c r="AD10" s="35">
         <v>1</v>
       </c>
@@ -66209,7 +66208,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AC12" s="49"/>
+      <c r="AC12" s="47"/>
       <c r="AD12" s="35">
         <v>4</v>
       </c>
@@ -66504,7 +66503,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AC14" s="49"/>
+      <c r="AC14" s="47"/>
       <c r="AD14" s="35">
         <v>3</v>
       </c>
@@ -66799,7 +66798,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AC16" s="49"/>
+      <c r="AC16" s="47"/>
       <c r="AD16" s="35">
         <v>4</v>
       </c>
@@ -67094,7 +67093,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AC18" s="49"/>
+      <c r="AC18" s="47"/>
       <c r="AD18" s="35">
         <v>4</v>
       </c>
@@ -67389,7 +67388,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="AC20" s="49"/>
+      <c r="AC20" s="47"/>
       <c r="AD20" s="35">
         <v>4</v>
       </c>
@@ -67684,7 +67683,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AC22" s="49"/>
+      <c r="AC22" s="47"/>
       <c r="AD22" s="35">
         <v>4</v>
       </c>
@@ -67979,7 +67978,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC24" s="49"/>
+      <c r="AC24" s="47"/>
       <c r="AD24" s="35">
         <v>4</v>
       </c>
@@ -68194,10 +68193,10 @@
       <c r="A26" s="30">
         <v>23</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <v>42850.509027777778</v>
       </c>
       <c r="D26" s="47"/>
@@ -68270,11 +68269,11 @@
       <c r="AA26" s="35">
         <v>0</v>
       </c>
-      <c r="AB26" s="50">
+      <c r="AB26" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC26" s="49"/>
+      <c r="AC26" s="47"/>
       <c r="AD26" s="35">
         <v>0</v>
       </c>
@@ -68305,7 +68304,7 @@
       <c r="AM26" s="35">
         <v>0</v>
       </c>
-      <c r="AN26" s="50">
+      <c r="AN26" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -68569,7 +68568,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AC28" s="49"/>
+      <c r="AC28" s="47"/>
       <c r="AD28" s="35">
         <v>4</v>
       </c>
@@ -68864,7 +68863,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AC30" s="49"/>
+      <c r="AC30" s="47"/>
       <c r="AD30" s="35">
         <v>4</v>
       </c>
@@ -69159,7 +69158,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC32" s="49"/>
+      <c r="AC32" s="47"/>
       <c r="AD32" s="35">
         <v>4</v>
       </c>
@@ -69454,7 +69453,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="AC34" s="49"/>
+      <c r="AC34" s="47"/>
       <c r="AD34" s="35">
         <v>1</v>
       </c>
@@ -69749,7 +69748,7 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="AC36" s="49"/>
+      <c r="AC36" s="47"/>
       <c r="AD36" s="35">
         <v>4</v>
       </c>
@@ -70044,7 +70043,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AC38" s="49"/>
+      <c r="AC38" s="47"/>
       <c r="AD38" s="35">
         <v>3</v>
       </c>
@@ -70339,7 +70338,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AC40" s="49"/>
+      <c r="AC40" s="47"/>
       <c r="AD40" s="35">
         <v>3</v>
       </c>
@@ -70634,7 +70633,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AC42" s="49"/>
+      <c r="AC42" s="47"/>
       <c r="AD42" s="35">
         <v>4</v>
       </c>
@@ -70929,7 +70928,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AC44" s="49"/>
+      <c r="AC44" s="47"/>
       <c r="AD44" s="35">
         <v>4</v>
       </c>
@@ -71224,7 +71223,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AC46" s="49"/>
+      <c r="AC46" s="47"/>
       <c r="AD46" s="35">
         <v>4</v>
       </c>
@@ -71519,7 +71518,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC48" s="49"/>
+      <c r="AC48" s="47"/>
       <c r="AD48" s="35">
         <v>3</v>
       </c>
@@ -71814,7 +71813,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AC50" s="49"/>
+      <c r="AC50" s="47"/>
       <c r="AD50" s="35">
         <v>3</v>
       </c>
@@ -72109,7 +72108,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AC52" s="49"/>
+      <c r="AC52" s="47"/>
       <c r="AD52" s="35">
         <v>3</v>
       </c>
@@ -72404,7 +72403,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AC54" s="49"/>
+      <c r="AC54" s="47"/>
       <c r="AD54" s="35">
         <v>3</v>
       </c>
@@ -72699,7 +72698,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AC56" s="49"/>
+      <c r="AC56" s="47"/>
       <c r="AD56" s="35">
         <v>4</v>
       </c>
@@ -72994,7 +72993,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AC58" s="49"/>
+      <c r="AC58" s="47"/>
       <c r="AD58" s="35">
         <v>4</v>
       </c>
@@ -73289,7 +73288,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AC60" s="49"/>
+      <c r="AC60" s="47"/>
       <c r="AD60" s="35">
         <v>4</v>
       </c>
@@ -73584,7 +73583,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AC62" s="49"/>
+      <c r="AC62" s="47"/>
       <c r="AD62" s="35">
         <v>4</v>
       </c>
@@ -73879,7 +73878,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AC64" s="49"/>
+      <c r="AC64" s="47"/>
       <c r="AD64" s="35">
         <v>4</v>
       </c>
@@ -74174,7 +74173,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AC66" s="49"/>
+      <c r="AC66" s="47"/>
       <c r="AD66" s="35">
         <v>4</v>
       </c>
@@ -74469,7 +74468,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AC68" s="49"/>
+      <c r="AC68" s="47"/>
       <c r="AD68" s="35">
         <v>4</v>
       </c>
@@ -74764,7 +74763,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AC70" s="49"/>
+      <c r="AC70" s="47"/>
       <c r="AD70" s="35">
         <v>4</v>
       </c>
@@ -75059,7 +75058,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AC72" s="49"/>
+      <c r="AC72" s="47"/>
       <c r="AD72" s="35">
         <v>4</v>
       </c>
@@ -75354,7 +75353,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC74" s="49"/>
+      <c r="AC74" s="47"/>
       <c r="AD74" s="35">
         <v>4</v>
       </c>
@@ -75649,7 +75648,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AC76" s="49"/>
+      <c r="AC76" s="47"/>
       <c r="AD76" s="35">
         <v>4</v>
       </c>
@@ -75944,7 +75943,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AC78" s="49"/>
+      <c r="AC78" s="47"/>
       <c r="AD78" s="35">
         <v>3</v>
       </c>
@@ -76239,7 +76238,7 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="AC80" s="49"/>
+      <c r="AC80" s="47"/>
       <c r="AD80" s="35">
         <v>3</v>
       </c>
@@ -76534,7 +76533,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AC82" s="49"/>
+      <c r="AC82" s="47"/>
       <c r="AD82" s="35">
         <v>3</v>
       </c>
@@ -76829,7 +76828,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="AC84" s="49"/>
+      <c r="AC84" s="47"/>
       <c r="AD84" s="35">
         <v>4</v>
       </c>
@@ -77124,7 +77123,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AC86" s="49"/>
+      <c r="AC86" s="47"/>
       <c r="AD86" s="35">
         <v>4</v>
       </c>
@@ -77419,7 +77418,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AC88" s="49"/>
+      <c r="AC88" s="47"/>
       <c r="AD88" s="35">
         <v>4</v>
       </c>
@@ -77714,7 +77713,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC90" s="49"/>
+      <c r="AC90" s="47"/>
       <c r="AD90" s="35">
         <v>1</v>
       </c>
@@ -78009,7 +78008,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AC92" s="49"/>
+      <c r="AC92" s="47"/>
       <c r="AD92" s="35">
         <v>3</v>
       </c>
@@ -78125,11 +78124,11 @@
       <c r="AD94" s="45"/>
     </row>
     <row r="95" spans="1:48" ht="15">
-      <c r="C95" s="52"/>
+      <c r="C95" s="51"/>
       <c r="AB95" s="44"/>
-      <c r="AC95" s="52"/>
+      <c r="AC95" s="51"/>
       <c r="AD95" s="45"/>
-      <c r="AO95" s="53"/>
+      <c r="AO95" s="52"/>
     </row>
     <row r="96" spans="1:48" ht="14.25">
       <c r="AB96" s="44"/>
@@ -81400,53 +81399,6 @@
       <c r="AD912" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="AC83:AC84"/>
-    <mergeCell ref="AC87:AC88"/>
-    <mergeCell ref="AC89:AC90"/>
-    <mergeCell ref="AC91:AC92"/>
-    <mergeCell ref="AC77:AC78"/>
-    <mergeCell ref="AC79:AC80"/>
-    <mergeCell ref="AC85:AC86"/>
-    <mergeCell ref="AC69:AC70"/>
-    <mergeCell ref="AC71:AC72"/>
-    <mergeCell ref="AC73:AC74"/>
-    <mergeCell ref="AC75:AC76"/>
-    <mergeCell ref="AC67:AC68"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC57:AC58"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="AC45:AC46"/>
-    <mergeCell ref="AC47:AC48"/>
-    <mergeCell ref="AC49:AC50"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AC63:AC64"/>
-    <mergeCell ref="AC65:AC66"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC61:AC62"/>
-    <mergeCell ref="AC51:AC52"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="AC55:AC56"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AC43:AC44"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
